--- a/Results/DetectorStressResults.xlsx
+++ b/Results/DetectorStressResults.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Alkane_GO_IonStats_Results" sheetId="1" r:id="rId1"/>
-    <sheet name="OFN_20fg_Sensitivity_Results" sheetId="2" r:id="rId2"/>
-    <sheet name="OFN_Ion_Stats_Results" sheetId="3" r:id="rId3"/>
-    <sheet name="DetectorStressResults" sheetId="4" r:id="rId4"/>
+    <sheet name="OFN_20fg_Sensitivity_Results_1" sheetId="2" r:id="rId2"/>
+    <sheet name="OFN_20fg_Sensitivity_Results_2" sheetId="6" r:id="rId3"/>
+    <sheet name="OFN_Ion_Stats_Results" sheetId="3" r:id="rId4"/>
+    <sheet name="OFN Linearity" sheetId="4" r:id="rId5"/>
+    <sheet name="CombinedGOResults" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>setname</t>
   </si>
@@ -134,12 +136,95 @@
   <si>
     <t>orders</t>
   </si>
+  <si>
+    <t>%RSD</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Ave</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>IDL</t>
+  </si>
+  <si>
+    <t>Ave S/N</t>
+  </si>
+  <si>
+    <t>Ave Area</t>
+  </si>
+  <si>
+    <t>OffSet</t>
+  </si>
+  <si>
+    <t>20 fg OFN +350 Volt Det Offset</t>
+  </si>
+  <si>
+    <t>20 fg OFN +250 Volt Det Offset</t>
+  </si>
+  <si>
+    <t>20 fg OFN +150 Volt Det Offset</t>
+  </si>
+  <si>
+    <t>20 fg OFN +0 Volt Det Offset</t>
+  </si>
+  <si>
+    <t>PV1 Data</t>
+  </si>
+  <si>
+    <t>PV2 Data</t>
+  </si>
+  <si>
+    <t>OFN Data</t>
+  </si>
+  <si>
+    <t>Alkane Data</t>
+  </si>
+  <si>
+    <t>OFN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+  </si>
+  <si>
+    <t>Alkane</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t># of Inj.</t>
+  </si>
+  <si>
+    <t>Offset (volts)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +358,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -616,8 +707,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,6 +776,3747 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Offset vs IDL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11661890374168347"/>
+          <c:y val="0.11574074074074074"/>
+          <c:w val="0.81350607336873593"/>
+          <c:h val="0.74085609508640882"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$S$4:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$T$4:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6614000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6740000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6417999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6959999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$S$4:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$U$4:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.3151000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4854999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6081999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3099000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="329482152"/>
+        <c:axId val="329482936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="329482152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Detector</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Voltage Offset</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329482936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="329482936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IDL</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> from 20fg OFN On Column</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329482152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13523600174978129"/>
+          <c:y val="0.5931707494896471"/>
+          <c:w val="8.5881859244338637E-2"/>
+          <c:h val="0.11043020653685569"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Offset vs Average Area</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11661890374168347"/>
+          <c:y val="0.11574074074074074"/>
+          <c:w val="0.81350607336873593"/>
+          <c:h val="0.74085609508640882"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0681804309345053E-6"/>
+                  <c:y val="0.24180213621858704"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 277.47x + 17951</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.973</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>PV1 Linearity</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$S$12:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$T$12:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16175.486363636364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57751.142857142855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97173.733333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108804.33333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$U$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20069660623817379"/>
+                  <c:y val="-5.6761695021278195E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 518.2x + 30582</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.9926</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>PV2 Linearity</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$S$12:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$U$12:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118083.73333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155902.39999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210786.26666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="327473904"/>
+        <c:axId val="327475864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="327473904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Detector</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Voltage Offset</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327475864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="327475864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Average Area from 20fg OFN On Column</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327473904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15267792834035279"/>
+          <c:y val="0.1809007383346069"/>
+          <c:w val="0.2273547274613929"/>
+          <c:h val="0.13660607228558072"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Offset vs Average Quant S/N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11661890374168347"/>
+          <c:y val="0.11574074074074074"/>
+          <c:w val="0.81350607336873593"/>
+          <c:h val="0.74085609508640882"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$S$20:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$T$20:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.798881818181818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.931607142857143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.328466666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.138046666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$U$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$S$20:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OFN_20fg_Sensitivity_Results_2!$U$20:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.7211800000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.036733333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.208866666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.185600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="327471160"/>
+        <c:axId val="327472336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="327471160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Detector</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Voltage Offset</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327472336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="327472336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Average Quant S/N from 20fg OFN On Column</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327471160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15267792834035279"/>
+          <c:y val="0.1809007383346069"/>
+          <c:w val="0.14014542513581152"/>
+          <c:h val="0.11043020653685569"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -944,7 +4784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1188,7 +5030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -1560,10 +5402,1701 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U45"/>
+  <sheetViews>
+    <sheetView topLeftCell="W19" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="1"/>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>C5</f>
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="U4" s="3">
+        <f>C28</f>
+        <v>8.3151000000000006E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>16443</v>
+      </c>
+      <c r="E5">
+        <v>6.4854000000000003</v>
+      </c>
+      <c r="G5">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H5">
+        <v>43235</v>
+      </c>
+      <c r="I5">
+        <v>9.5130999999999997</v>
+      </c>
+      <c r="K5">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L5">
+        <v>92566</v>
+      </c>
+      <c r="M5">
+        <v>11.435</v>
+      </c>
+      <c r="O5">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P5">
+        <v>108777</v>
+      </c>
+      <c r="Q5">
+        <v>8.3759999999999994</v>
+      </c>
+      <c r="S5">
+        <v>150</v>
+      </c>
+      <c r="T5">
+        <f>G5</f>
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="U5" s="3">
+        <f>G28</f>
+        <v>4.4854999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>6789</v>
+      </c>
+      <c r="E6">
+        <v>1.7672000000000001</v>
+      </c>
+      <c r="G6">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H6">
+        <v>37831</v>
+      </c>
+      <c r="I6">
+        <v>7.9650999999999996</v>
+      </c>
+      <c r="K6">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L6">
+        <v>86215</v>
+      </c>
+      <c r="M6">
+        <v>13.664999999999999</v>
+      </c>
+      <c r="O6">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P6">
+        <v>106515</v>
+      </c>
+      <c r="Q6">
+        <v>9.1262000000000008</v>
+      </c>
+      <c r="S6">
+        <v>250</v>
+      </c>
+      <c r="T6">
+        <f>K5</f>
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="U6" s="3">
+        <f>K28</f>
+        <v>4.6081999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>7716.2</v>
+      </c>
+      <c r="E7">
+        <v>2.9335</v>
+      </c>
+      <c r="G7">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H7">
+        <v>45637</v>
+      </c>
+      <c r="I7">
+        <v>7.2454999999999998</v>
+      </c>
+      <c r="K7">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L7">
+        <v>102931</v>
+      </c>
+      <c r="M7">
+        <v>13.117000000000001</v>
+      </c>
+      <c r="O7">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P7">
+        <v>101603</v>
+      </c>
+      <c r="Q7">
+        <v>7.3947000000000003</v>
+      </c>
+      <c r="S7">
+        <v>350</v>
+      </c>
+      <c r="T7">
+        <f>O5</f>
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="U7" s="3">
+        <f>O28</f>
+        <v>3.3099000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H8">
+        <v>48147</v>
+      </c>
+      <c r="I8">
+        <v>8.4774999999999991</v>
+      </c>
+      <c r="K8">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L8">
+        <v>115255</v>
+      </c>
+      <c r="M8">
+        <v>11.978999999999999</v>
+      </c>
+      <c r="O8">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P8">
+        <v>112401</v>
+      </c>
+      <c r="Q8">
+        <v>9.9829000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>6457.3</v>
+      </c>
+      <c r="E9">
+        <v>1.1424000000000001</v>
+      </c>
+      <c r="G9">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H9">
+        <v>61527</v>
+      </c>
+      <c r="I9">
+        <v>12.964</v>
+      </c>
+      <c r="K9">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L9">
+        <v>86771</v>
+      </c>
+      <c r="M9">
+        <v>11.381</v>
+      </c>
+      <c r="O9">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P9">
+        <v>114710</v>
+      </c>
+      <c r="Q9">
+        <v>9.0914000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>17927</v>
+      </c>
+      <c r="E10">
+        <v>4.5967000000000002</v>
+      </c>
+      <c r="G10">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H10">
+        <v>62529</v>
+      </c>
+      <c r="I10">
+        <v>8.8786000000000005</v>
+      </c>
+      <c r="K10">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L10">
+        <v>89197</v>
+      </c>
+      <c r="M10">
+        <v>12.973000000000001</v>
+      </c>
+      <c r="O10">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P10">
+        <v>109956</v>
+      </c>
+      <c r="Q10">
+        <v>7.6166999999999998</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>16446</v>
+      </c>
+      <c r="E11">
+        <v>4.8932000000000002</v>
+      </c>
+      <c r="G11">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H11">
+        <v>70733</v>
+      </c>
+      <c r="I11">
+        <v>13.635</v>
+      </c>
+      <c r="K11">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L11">
+        <v>119052</v>
+      </c>
+      <c r="M11">
+        <v>11.978999999999999</v>
+      </c>
+      <c r="O11">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P11">
+        <v>129358</v>
+      </c>
+      <c r="Q11">
+        <v>10.984999999999999</v>
+      </c>
+      <c r="S11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>23337</v>
+      </c>
+      <c r="E12">
+        <v>8.2728000000000002</v>
+      </c>
+      <c r="G12">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H12">
+        <v>63896</v>
+      </c>
+      <c r="I12">
+        <v>11.01</v>
+      </c>
+      <c r="K12">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L12">
+        <v>101606</v>
+      </c>
+      <c r="M12">
+        <v>12.058999999999999</v>
+      </c>
+      <c r="O12">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P12">
+        <v>113309</v>
+      </c>
+      <c r="Q12">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <f>D20</f>
+        <v>16175.486363636364</v>
+      </c>
+      <c r="U12" s="3">
+        <f>D43</f>
+        <v>26207</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>14760</v>
+      </c>
+      <c r="E13">
+        <v>5.5926</v>
+      </c>
+      <c r="G13">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H13">
+        <v>69664</v>
+      </c>
+      <c r="I13">
+        <v>14.685</v>
+      </c>
+      <c r="K13">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L13">
+        <v>91274</v>
+      </c>
+      <c r="M13">
+        <v>10.849</v>
+      </c>
+      <c r="O13">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P13">
+        <v>114290</v>
+      </c>
+      <c r="Q13">
+        <v>9.6586999999999996</v>
+      </c>
+      <c r="S13">
+        <v>150</v>
+      </c>
+      <c r="T13" s="3">
+        <f>H20</f>
+        <v>57751.142857142855</v>
+      </c>
+      <c r="U13" s="3">
+        <f>H43</f>
+        <v>118083.73333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H14">
+        <v>62106</v>
+      </c>
+      <c r="I14">
+        <v>13.991</v>
+      </c>
+      <c r="K14">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L14">
+        <v>95754</v>
+      </c>
+      <c r="M14">
+        <v>12.333</v>
+      </c>
+      <c r="O14">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P14">
+        <v>114121</v>
+      </c>
+      <c r="Q14">
+        <v>9.4476999999999993</v>
+      </c>
+      <c r="S14">
+        <v>250</v>
+      </c>
+      <c r="T14" s="3">
+        <f>L20</f>
+        <v>97173.733333333337</v>
+      </c>
+      <c r="U14" s="3">
+        <f>L43</f>
+        <v>155902.39999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>34074</v>
+      </c>
+      <c r="E15">
+        <v>14.071</v>
+      </c>
+      <c r="G15">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H15">
+        <v>65923</v>
+      </c>
+      <c r="I15">
+        <v>13.071999999999999</v>
+      </c>
+      <c r="K15">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L15">
+        <v>107531</v>
+      </c>
+      <c r="M15">
+        <v>12.911</v>
+      </c>
+      <c r="O15">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P15">
+        <v>93993</v>
+      </c>
+      <c r="Q15">
+        <v>8.6890999999999998</v>
+      </c>
+      <c r="S15">
+        <v>350</v>
+      </c>
+      <c r="T15" s="3">
+        <f>P20</f>
+        <v>108804.33333333333</v>
+      </c>
+      <c r="U15" s="3">
+        <f>P43</f>
+        <v>210786.26666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H16">
+        <v>55643</v>
+      </c>
+      <c r="I16">
+        <v>11.015000000000001</v>
+      </c>
+      <c r="K16">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L16">
+        <v>100324</v>
+      </c>
+      <c r="M16">
+        <v>14.31</v>
+      </c>
+      <c r="O16">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P16">
+        <v>110690</v>
+      </c>
+      <c r="Q16">
+        <v>9.2452000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L17">
+        <v>92053</v>
+      </c>
+      <c r="M17">
+        <v>12.441000000000001</v>
+      </c>
+      <c r="O17">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P17">
+        <v>108677</v>
+      </c>
+      <c r="Q17">
+        <v>9.0680999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>932.85</v>
+      </c>
+      <c r="E18">
+        <v>1.0639000000000001</v>
+      </c>
+      <c r="G18">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H18">
+        <v>53635</v>
+      </c>
+      <c r="I18">
+        <v>9.9016999999999999</v>
+      </c>
+      <c r="K18">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L18">
+        <v>92169</v>
+      </c>
+      <c r="M18">
+        <v>12.542</v>
+      </c>
+      <c r="O18">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P18">
+        <v>107070</v>
+      </c>
+      <c r="Q18">
+        <v>9.9566999999999997</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>3.6614000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>33048</v>
+      </c>
+      <c r="E19">
+        <v>12.968999999999999</v>
+      </c>
+      <c r="G19">
+        <v>9.6740000000000003E-3</v>
+      </c>
+      <c r="H19">
+        <v>68010</v>
+      </c>
+      <c r="I19">
+        <v>10.689</v>
+      </c>
+      <c r="K19">
+        <v>5.6417999999999998E-3</v>
+      </c>
+      <c r="L19">
+        <v>84908</v>
+      </c>
+      <c r="M19">
+        <v>10.952999999999999</v>
+      </c>
+      <c r="O19">
+        <v>4.6959999999999997E-3</v>
+      </c>
+      <c r="P19">
+        <v>86595</v>
+      </c>
+      <c r="Q19">
+        <v>8.4623000000000008</v>
+      </c>
+      <c r="S19" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3">
+        <f>AVERAGE(D5:D19)</f>
+        <v>16175.486363636364</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(E5:E19)</f>
+        <v>5.798881818181818</v>
+      </c>
+      <c r="H20" s="3">
+        <f>AVERAGE(H5:H19)</f>
+        <v>57751.142857142855</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(I5:I19)</f>
+        <v>10.931607142857143</v>
+      </c>
+      <c r="L20" s="3">
+        <f>AVERAGE(L5:L19)</f>
+        <v>97173.733333333337</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(M5:M19)</f>
+        <v>12.328466666666666</v>
+      </c>
+      <c r="P20" s="3">
+        <f>AVERAGE(P5:P19)</f>
+        <v>108804.33333333333</v>
+      </c>
+      <c r="Q20">
+        <f>AVERAGE(Q5:Q19)</f>
+        <v>9.138046666666666</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>E20</f>
+        <v>5.798881818181818</v>
+      </c>
+      <c r="U20" s="3">
+        <f>E43</f>
+        <v>9.7211800000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3">
+        <f>STDEV(D5:D19)</f>
+        <v>10714.423403760253</v>
+      </c>
+      <c r="E21">
+        <f>STDEV(E5:E19)</f>
+        <v>4.4419130135152765</v>
+      </c>
+      <c r="H21" s="3">
+        <f>STDEV(H5:H19)</f>
+        <v>10539.984877066536</v>
+      </c>
+      <c r="I21">
+        <f>STDEV(I5:I19)</f>
+        <v>2.4057293442192051</v>
+      </c>
+      <c r="L21" s="3">
+        <f>STDEV(L5:L19)</f>
+        <v>10444.715584356245</v>
+      </c>
+      <c r="M21">
+        <f>STDEV(M5:M19)</f>
+        <v>0.97252255696694456</v>
+      </c>
+      <c r="P21" s="3">
+        <f>STDEV(P5:P19)</f>
+        <v>9734.1626220430971</v>
+      </c>
+      <c r="Q21">
+        <f>STDEV(Q5:Q19)</f>
+        <v>0.94361251798354073</v>
+      </c>
+      <c r="S21">
+        <v>150</v>
+      </c>
+      <c r="T21">
+        <f>I20</f>
+        <v>10.931607142857143</v>
+      </c>
+      <c r="U21" s="3">
+        <f>I43</f>
+        <v>18.036733333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2">
+        <f>D21/D20</f>
+        <v>0.66238647561454678</v>
+      </c>
+      <c r="E22" s="2">
+        <f>E21/E20</f>
+        <v>0.76599474739907603</v>
+      </c>
+      <c r="H22" s="2">
+        <f>H21/H20</f>
+        <v>0.18250694887785956</v>
+      </c>
+      <c r="I22" s="2">
+        <f>I21/I20</f>
+        <v>0.2200709660327613</v>
+      </c>
+      <c r="L22" s="2">
+        <f>L21/L20</f>
+        <v>0.10748496765610437</v>
+      </c>
+      <c r="M22" s="2">
+        <f>M21/M20</f>
+        <v>7.8884307616000751E-2</v>
+      </c>
+      <c r="P22" s="2">
+        <f>P21/P20</f>
+        <v>8.9464843208234029E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>Q21/Q20</f>
+        <v>0.10326194999918373</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22">
+        <v>250</v>
+      </c>
+      <c r="T22">
+        <f>M20</f>
+        <v>12.328466666666666</v>
+      </c>
+      <c r="U22" s="3">
+        <f>M43</f>
+        <v>15.208866666666665</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>350</v>
+      </c>
+      <c r="T23">
+        <f>Q20</f>
+        <v>9.138046666666666</v>
+      </c>
+      <c r="U23" s="3">
+        <f>Q43</f>
+        <v>17.185600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="O26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D28">
+        <v>20747</v>
+      </c>
+      <c r="E28">
+        <v>7.2911000000000001</v>
+      </c>
+      <c r="G28">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H28">
+        <v>114611</v>
+      </c>
+      <c r="I28">
+        <v>18.966000000000001</v>
+      </c>
+      <c r="K28">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L28">
+        <v>155395</v>
+      </c>
+      <c r="M28">
+        <v>14.875999999999999</v>
+      </c>
+      <c r="O28">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P28">
+        <v>192205</v>
+      </c>
+      <c r="Q28">
+        <v>17.863</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D29">
+        <v>25123</v>
+      </c>
+      <c r="E29">
+        <v>10.593999999999999</v>
+      </c>
+      <c r="G29">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H29">
+        <v>123140</v>
+      </c>
+      <c r="I29">
+        <v>20.102</v>
+      </c>
+      <c r="K29">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L29">
+        <v>157494</v>
+      </c>
+      <c r="M29">
+        <v>14.194000000000001</v>
+      </c>
+      <c r="O29">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P29">
+        <v>210632</v>
+      </c>
+      <c r="Q29">
+        <v>16.831</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D30">
+        <v>28091</v>
+      </c>
+      <c r="E30">
+        <v>9.4978999999999996</v>
+      </c>
+      <c r="G30">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H30">
+        <v>105974</v>
+      </c>
+      <c r="I30">
+        <v>15.638</v>
+      </c>
+      <c r="K30">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L30">
+        <v>171239</v>
+      </c>
+      <c r="M30">
+        <v>16.030999999999999</v>
+      </c>
+      <c r="O30">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P30">
+        <v>193260</v>
+      </c>
+      <c r="Q30">
+        <v>12.986000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D31">
+        <v>20893</v>
+      </c>
+      <c r="E31">
+        <v>6.7171000000000003</v>
+      </c>
+      <c r="G31">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H31">
+        <v>145404</v>
+      </c>
+      <c r="I31">
+        <v>21.023</v>
+      </c>
+      <c r="K31">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L31">
+        <v>147076</v>
+      </c>
+      <c r="M31">
+        <v>17.280999999999999</v>
+      </c>
+      <c r="O31">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P31">
+        <v>208908</v>
+      </c>
+      <c r="Q31">
+        <v>16.042000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D32">
+        <v>27519</v>
+      </c>
+      <c r="E32">
+        <v>11.510999999999999</v>
+      </c>
+      <c r="G32">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H32">
+        <v>126463</v>
+      </c>
+      <c r="I32">
+        <v>19.04</v>
+      </c>
+      <c r="K32">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L32">
+        <v>140538</v>
+      </c>
+      <c r="M32">
+        <v>14.363</v>
+      </c>
+      <c r="O32">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P32">
+        <v>226823</v>
+      </c>
+      <c r="Q32">
+        <v>19.672000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D33">
+        <v>28272</v>
+      </c>
+      <c r="E33">
+        <v>9.2097999999999995</v>
+      </c>
+      <c r="G33">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H33">
+        <v>114905</v>
+      </c>
+      <c r="I33">
+        <v>16.254999999999999</v>
+      </c>
+      <c r="K33">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L33">
+        <v>140145</v>
+      </c>
+      <c r="M33">
+        <v>13.722</v>
+      </c>
+      <c r="O33">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P33">
+        <v>204725</v>
+      </c>
+      <c r="Q33">
+        <v>18.103000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D34">
+        <v>29792</v>
+      </c>
+      <c r="E34">
+        <v>10.323</v>
+      </c>
+      <c r="G34">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H34">
+        <v>115516</v>
+      </c>
+      <c r="I34">
+        <v>18.331</v>
+      </c>
+      <c r="K34">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L34">
+        <v>179369</v>
+      </c>
+      <c r="M34">
+        <v>15.61</v>
+      </c>
+      <c r="O34">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P34">
+        <v>217862</v>
+      </c>
+      <c r="Q34">
+        <v>18.106999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D35">
+        <v>27476</v>
+      </c>
+      <c r="E35">
+        <v>11.19</v>
+      </c>
+      <c r="G35">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H35">
+        <v>112163</v>
+      </c>
+      <c r="I35">
+        <v>15.218999999999999</v>
+      </c>
+      <c r="K35">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L35">
+        <v>154722</v>
+      </c>
+      <c r="M35">
+        <v>16.009</v>
+      </c>
+      <c r="O35">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P35">
+        <v>191385</v>
+      </c>
+      <c r="Q35">
+        <v>14.041</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D36">
+        <v>21715</v>
+      </c>
+      <c r="E36">
+        <v>8.3718000000000004</v>
+      </c>
+      <c r="G36">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H36">
+        <v>114199</v>
+      </c>
+      <c r="I36">
+        <v>18.045000000000002</v>
+      </c>
+      <c r="K36">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L36">
+        <v>175462</v>
+      </c>
+      <c r="M36">
+        <v>16.132000000000001</v>
+      </c>
+      <c r="O36">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P36">
+        <v>225495</v>
+      </c>
+      <c r="Q36">
+        <v>17.495999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D37">
+        <v>24812</v>
+      </c>
+      <c r="E37">
+        <v>11.13</v>
+      </c>
+      <c r="G37">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H37">
+        <v>108742</v>
+      </c>
+      <c r="I37">
+        <v>17.081</v>
+      </c>
+      <c r="K37">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L37">
+        <v>141507</v>
+      </c>
+      <c r="M37">
+        <v>13.78</v>
+      </c>
+      <c r="O37">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P37">
+        <v>229920</v>
+      </c>
+      <c r="Q37">
+        <v>16.779</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D38">
+        <v>25839</v>
+      </c>
+      <c r="E38">
+        <v>11.795</v>
+      </c>
+      <c r="G38">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H38">
+        <v>105448</v>
+      </c>
+      <c r="I38">
+        <v>18.311</v>
+      </c>
+      <c r="K38">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L38">
+        <v>173117</v>
+      </c>
+      <c r="M38">
+        <v>17.135000000000002</v>
+      </c>
+      <c r="O38">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P38">
+        <v>203685</v>
+      </c>
+      <c r="Q38">
+        <v>18.164000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D39">
+        <v>21442</v>
+      </c>
+      <c r="E39">
+        <v>9.4307999999999996</v>
+      </c>
+      <c r="G39">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H39">
+        <v>120100</v>
+      </c>
+      <c r="I39">
+        <v>15.12</v>
+      </c>
+      <c r="K39">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L39">
+        <v>161899</v>
+      </c>
+      <c r="M39">
+        <v>14.430999999999999</v>
+      </c>
+      <c r="O39">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P39">
+        <v>209876</v>
+      </c>
+      <c r="Q39">
+        <v>19.959</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D40">
+        <v>36684</v>
+      </c>
+      <c r="E40">
+        <v>10.663</v>
+      </c>
+      <c r="G40">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H40">
+        <v>117011</v>
+      </c>
+      <c r="I40">
+        <v>18.956</v>
+      </c>
+      <c r="K40">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L40">
+        <v>148240</v>
+      </c>
+      <c r="M40">
+        <v>16.195</v>
+      </c>
+      <c r="O40">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P40">
+        <v>226815</v>
+      </c>
+      <c r="Q40">
+        <v>16.067</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D41">
+        <v>27953</v>
+      </c>
+      <c r="E41">
+        <v>10.95</v>
+      </c>
+      <c r="G41">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H41">
+        <v>119287</v>
+      </c>
+      <c r="I41">
+        <v>20.116</v>
+      </c>
+      <c r="K41">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L41">
+        <v>153234</v>
+      </c>
+      <c r="M41">
+        <v>13.365</v>
+      </c>
+      <c r="O41">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P41">
+        <v>199964</v>
+      </c>
+      <c r="Q41">
+        <v>18.571000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>8.3151000000000006E-3</v>
+      </c>
+      <c r="D42">
+        <v>26747</v>
+      </c>
+      <c r="E42">
+        <v>7.1432000000000002</v>
+      </c>
+      <c r="G42">
+        <v>4.4854999999999999E-3</v>
+      </c>
+      <c r="H42">
+        <v>128293</v>
+      </c>
+      <c r="I42">
+        <v>18.347999999999999</v>
+      </c>
+      <c r="K42">
+        <v>4.6081999999999998E-3</v>
+      </c>
+      <c r="L42">
+        <v>139099</v>
+      </c>
+      <c r="M42">
+        <v>15.009</v>
+      </c>
+      <c r="O42">
+        <v>3.3099000000000002E-3</v>
+      </c>
+      <c r="P42">
+        <v>220239</v>
+      </c>
+      <c r="Q42">
+        <v>17.103000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="3">
+        <f>AVERAGE(D28:D42)</f>
+        <v>26207</v>
+      </c>
+      <c r="E43">
+        <f>AVERAGE(E28:E42)</f>
+        <v>9.7211800000000004</v>
+      </c>
+      <c r="H43" s="3">
+        <f>AVERAGE(H28:H42)</f>
+        <v>118083.73333333334</v>
+      </c>
+      <c r="I43">
+        <f>AVERAGE(I28:I42)</f>
+        <v>18.036733333333334</v>
+      </c>
+      <c r="L43" s="3">
+        <f>AVERAGE(L28:L42)</f>
+        <v>155902.39999999999</v>
+      </c>
+      <c r="M43">
+        <f>AVERAGE(M28:M42)</f>
+        <v>15.208866666666665</v>
+      </c>
+      <c r="P43" s="3">
+        <f>AVERAGE(P28:P42)</f>
+        <v>210786.26666666666</v>
+      </c>
+      <c r="Q43">
+        <f>AVERAGE(Q28:Q42)</f>
+        <v>17.185600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="3">
+        <f>STDEV(D28:D42)</f>
+        <v>4151.550880609042</v>
+      </c>
+      <c r="E44">
+        <f>STDEV(E28:E42)</f>
+        <v>1.6681832141584396</v>
+      </c>
+      <c r="H44" s="3">
+        <f>STDEV(H28:H42)</f>
+        <v>10090.827061294449</v>
+      </c>
+      <c r="I44">
+        <f>STDEV(I28:I42)</f>
+        <v>1.8277473046140189</v>
+      </c>
+      <c r="L44" s="3">
+        <f>STDEV(L28:L42)</f>
+        <v>13686.898129232935</v>
+      </c>
+      <c r="M44">
+        <f>STDEV(M28:M42)</f>
+        <v>1.2380552068619943</v>
+      </c>
+      <c r="P44" s="3">
+        <f>STDEV(P28:P42)</f>
+        <v>13291.982478529071</v>
+      </c>
+      <c r="Q44">
+        <f>STDEV(Q28:Q42)</f>
+        <v>1.8780399280709141</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2">
+        <f>D44/D43</f>
+        <v>0.15841381617922853</v>
+      </c>
+      <c r="E45" s="2">
+        <f>E44/E43</f>
+        <v>0.17160295500735914</v>
+      </c>
+      <c r="H45" s="2">
+        <f>H44/H43</f>
+        <v>8.5454844426450349E-2</v>
+      </c>
+      <c r="I45" s="2">
+        <f>I44/I43</f>
+        <v>0.10133471903341804</v>
+      </c>
+      <c r="L45" s="2">
+        <f>L44/L43</f>
+        <v>8.7791452403766304E-2</v>
+      </c>
+      <c r="M45" s="2">
+        <f>M44/M43</f>
+        <v>8.1403515067657542E-2</v>
+      </c>
+      <c r="P45" s="2">
+        <f>P44/P43</f>
+        <v>6.3059053555651029E-2</v>
+      </c>
+      <c r="Q45" s="2">
+        <f>Q44/Q43</f>
+        <v>0.10927985802479483</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,7 +7373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1972,4 +7505,609 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="11" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="20" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2018.7</v>
+      </c>
+      <c r="E3">
+        <v>109.075</v>
+      </c>
+      <c r="F3">
+        <v>2018.7</v>
+      </c>
+      <c r="G3">
+        <v>111.66800000000001</v>
+      </c>
+      <c r="H3">
+        <v>2018.7</v>
+      </c>
+      <c r="I3">
+        <v>107.455</v>
+      </c>
+      <c r="J3">
+        <v>2011</v>
+      </c>
+      <c r="K3">
+        <v>110.556</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>106.55</v>
+      </c>
+      <c r="F4">
+        <v>2027</v>
+      </c>
+      <c r="G4">
+        <v>110.32299999999999</v>
+      </c>
+      <c r="H4">
+        <v>2014.5</v>
+      </c>
+      <c r="I4">
+        <v>109.15900000000001</v>
+      </c>
+      <c r="J4">
+        <v>2037.5</v>
+      </c>
+      <c r="K4">
+        <v>109.741</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>2021.3</v>
+      </c>
+      <c r="E5">
+        <v>109.633</v>
+      </c>
+      <c r="F5">
+        <v>2033.8</v>
+      </c>
+      <c r="G5">
+        <v>109.81100000000001</v>
+      </c>
+      <c r="H5">
+        <v>2056.8000000000002</v>
+      </c>
+      <c r="I5">
+        <v>110.3</v>
+      </c>
+      <c r="J5">
+        <v>2087.4</v>
+      </c>
+      <c r="K5">
+        <v>109.798</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>350</v>
+      </c>
+      <c r="D6">
+        <v>2074.9</v>
+      </c>
+      <c r="E6">
+        <v>109.176</v>
+      </c>
+      <c r="F6">
+        <v>2074.9</v>
+      </c>
+      <c r="G6">
+        <v>113.895</v>
+      </c>
+      <c r="H6">
+        <v>2074.9</v>
+      </c>
+      <c r="I6">
+        <v>108.101</v>
+      </c>
+      <c r="J6">
+        <v>2117.6999999999998</v>
+      </c>
+      <c r="K6">
+        <v>110.312</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>F3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>120</v>
+      </c>
+      <c r="Q6">
+        <f>J3-H3</f>
+        <v>-7.7000000000000455</v>
+      </c>
+      <c r="R6">
+        <v>85</v>
+      </c>
+      <c r="S6">
+        <f>J3-D3</f>
+        <v>-7.7000000000000455</v>
+      </c>
+      <c r="T6">
+        <f>SUM(P6,R6)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2050.5</v>
+      </c>
+      <c r="E7">
+        <v>110.143</v>
+      </c>
+      <c r="F7">
+        <v>2042.1</v>
+      </c>
+      <c r="G7">
+        <v>109.46599999999999</v>
+      </c>
+      <c r="H7">
+        <v>2047.6</v>
+      </c>
+      <c r="I7">
+        <v>109.852</v>
+      </c>
+      <c r="J7">
+        <v>2042.5</v>
+      </c>
+      <c r="K7">
+        <v>109.405</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>150</v>
+      </c>
+      <c r="O7">
+        <f>F4-D4</f>
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>120</v>
+      </c>
+      <c r="Q7">
+        <f>J4-H4</f>
+        <v>23</v>
+      </c>
+      <c r="R7">
+        <v>85</v>
+      </c>
+      <c r="S7">
+        <f>J4-D4</f>
+        <v>26.5</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T13" si="0">SUM(P7,R7)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>2079.6</v>
+      </c>
+      <c r="E8">
+        <v>109.34399999999999</v>
+      </c>
+      <c r="F8">
+        <v>2067.1</v>
+      </c>
+      <c r="G8">
+        <v>109.352</v>
+      </c>
+      <c r="H8">
+        <v>2058.6999999999998</v>
+      </c>
+      <c r="I8">
+        <v>108.91</v>
+      </c>
+      <c r="J8">
+        <v>2093.1</v>
+      </c>
+      <c r="K8">
+        <v>109.474</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>250</v>
+      </c>
+      <c r="O8">
+        <f>F5-D5</f>
+        <v>12.5</v>
+      </c>
+      <c r="P8">
+        <v>120</v>
+      </c>
+      <c r="Q8">
+        <f>J5-H5</f>
+        <v>30.599999999999909</v>
+      </c>
+      <c r="R8">
+        <v>85</v>
+      </c>
+      <c r="S8">
+        <f>J5-D5</f>
+        <v>66.100000000000136</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>250</v>
+      </c>
+      <c r="D9">
+        <v>2093.1</v>
+      </c>
+      <c r="E9">
+        <v>113.828</v>
+      </c>
+      <c r="F9">
+        <v>2082.6999999999998</v>
+      </c>
+      <c r="G9">
+        <v>110.26300000000001</v>
+      </c>
+      <c r="H9">
+        <v>2074.1999999999998</v>
+      </c>
+      <c r="I9">
+        <v>109.099</v>
+      </c>
+      <c r="J9">
+        <v>2097.1999999999998</v>
+      </c>
+      <c r="K9">
+        <v>110.15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>350</v>
+      </c>
+      <c r="O9">
+        <f>F6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>120</v>
+      </c>
+      <c r="Q9">
+        <f>J6-H6</f>
+        <v>42.799999999999727</v>
+      </c>
+      <c r="R9">
+        <v>85</v>
+      </c>
+      <c r="S9">
+        <f>J6-D6</f>
+        <v>42.799999999999727</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>350</v>
+      </c>
+      <c r="D10">
+        <v>2109.6999999999998</v>
+      </c>
+      <c r="E10">
+        <v>110.764</v>
+      </c>
+      <c r="F10">
+        <v>2097.1999999999998</v>
+      </c>
+      <c r="G10">
+        <v>110.027</v>
+      </c>
+      <c r="H10">
+        <v>2109.6999999999998</v>
+      </c>
+      <c r="I10">
+        <v>110.01300000000001</v>
+      </c>
+      <c r="J10">
+        <v>2158.1</v>
+      </c>
+      <c r="K10">
+        <v>110.431</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>F7-D7</f>
+        <v>-8.4000000000000909</v>
+      </c>
+      <c r="P10">
+        <v>120</v>
+      </c>
+      <c r="Q10">
+        <f>J7-H7</f>
+        <v>-5.0999999999999091</v>
+      </c>
+      <c r="R10">
+        <v>85</v>
+      </c>
+      <c r="S10">
+        <f>J7-D7</f>
+        <v>-8</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>150</v>
+      </c>
+      <c r="O11">
+        <f>F8-D8</f>
+        <v>-12.5</v>
+      </c>
+      <c r="P11">
+        <v>120</v>
+      </c>
+      <c r="Q11">
+        <f>J8-H8</f>
+        <v>34.400000000000091</v>
+      </c>
+      <c r="R11">
+        <v>85</v>
+      </c>
+      <c r="S11">
+        <f>J8-D8</f>
+        <v>13.5</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>250</v>
+      </c>
+      <c r="O12">
+        <f>F9-D9</f>
+        <v>-10.400000000000091</v>
+      </c>
+      <c r="P12">
+        <v>120</v>
+      </c>
+      <c r="Q12">
+        <f>J9-H9</f>
+        <v>23</v>
+      </c>
+      <c r="R12">
+        <v>85</v>
+      </c>
+      <c r="S12">
+        <f>J9-D9</f>
+        <v>4.0999999999999091</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>350</v>
+      </c>
+      <c r="O13">
+        <f>F10-D10</f>
+        <v>-12.5</v>
+      </c>
+      <c r="P13">
+        <v>120</v>
+      </c>
+      <c r="Q13">
+        <f>J10-H10</f>
+        <v>48.400000000000091</v>
+      </c>
+      <c r="R13">
+        <v>53</v>
+      </c>
+      <c r="S13">
+        <f>J10-D10</f>
+        <v>48.400000000000091</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:G9">
+    <sortCondition ref="B2:B9"/>
+    <sortCondition ref="C2:C9"/>
+  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>